--- a/cleaned all season/batsmanset_smat.xlsx
+++ b/cleaned all season/batsmanset_smat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/all seasons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned all season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF565B-86E6-D84C-ABE8-0692ECFA7E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DAFF8-0FB2-C647-B452-9752C3DDD9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="6040" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="2880" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Player</t>
   </si>
@@ -155,13 +155,34 @@
   </si>
   <si>
     <t>V Suryavanshi</t>
+  </si>
+  <si>
+    <t>JP Inglis</t>
+  </si>
+  <si>
+    <t>2017-2024</t>
+  </si>
+  <si>
+    <t>MP Breetzke</t>
+  </si>
+  <si>
+    <t>2023-2025</t>
+  </si>
+  <si>
+    <t>RD Rickelton</t>
+  </si>
+  <si>
+    <t>BJ Jacobs</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +196,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF48494A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,12 +252,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1307,7 @@
       </c>
       <c r="E14" s="2">
         <f>-F19</f>
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1341,6 +1397,218 @@
       </c>
       <c r="Q15" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5">
+        <v>72</v>
+      </c>
+      <c r="E16" s="5">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1800</v>
+      </c>
+      <c r="G16" s="5">
+        <v>79</v>
+      </c>
+      <c r="H16" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1284</v>
+      </c>
+      <c r="J16" s="5">
+        <v>140.18</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>14</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5">
+        <v>170</v>
+      </c>
+      <c r="O16" s="5">
+        <v>56</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>658</v>
+      </c>
+      <c r="G17" s="5">
+        <v>78</v>
+      </c>
+      <c r="H17" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="I17" s="5">
+        <v>511</v>
+      </c>
+      <c r="J17" s="5">
+        <v>128.76</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>62</v>
+      </c>
+      <c r="O17" s="5">
+        <v>30</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1012</v>
+      </c>
+      <c r="G18" s="5">
+        <v>98</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44</v>
+      </c>
+      <c r="I18" s="5">
+        <v>622</v>
+      </c>
+      <c r="J18" s="5">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>8</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>90</v>
+      </c>
+      <c r="O18" s="5">
+        <v>57</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>27</v>
+      </c>
+      <c r="J19" s="7">
+        <v>96.29</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
